--- a/presentations/Comparativo de fees fijos y variables.xlsx
+++ b/presentations/Comparativo de fees fijos y variables.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresp/Documents/R Projects/Trading bloque/presentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C33570DF-982A-9E4F-90C6-AE1029E1F6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2DB92D-DDFD-FA4D-B673-C951885210DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="3120" yWindow="2200" windowWidth="24540" windowHeight="13020" xr2:uid="{FF18EC40-325D-4549-B661-1A48975C421C}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FF18EC40-325D-4549-B661-1A48975C421C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="EQCHX" sheetId="2" r:id="rId1"/>
+    <sheet name="AQMIX" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="new_sharpe">Sheet1!$C$14</definedName>
+    <definedName name="new_sharpe" localSheetId="0">EQCHX!$C$14</definedName>
+    <definedName name="new_sharpe">AQMIX!$C$14</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>Retorno Neto</t>
   </si>
@@ -135,8 +137,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -177,213 +179,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
+              <c:f>EQCHX!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sólo Management Fee</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$K$3:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.5000000000000011E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.22499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.24999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.27499999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$3:$L$12</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.0000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0000000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.9999999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.9999999999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.10999999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-7B7D-A143-AA4E-04D739BEF228}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Performance Fee</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$K$3:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.5000000000000011E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.22499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.24999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.27499999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$M$3:$M$12</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.6100000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4800000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3500000000000011E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2200000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0899999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.9599999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8299999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.6999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.5699999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.10439999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-7B7D-A143-AA4E-04D739BEF228}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sólo Management Fee</c:v>
+                  <c:v>Manager 2 - Manager 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -414,7 +218,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$12</c:f>
+              <c:f>EQCHX!$K$3:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -453,39 +257,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$12</c:f>
+              <c:f>EQCHX!$N$3:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.0000000000000004E-2</c:v>
+                  <c:v>9.7999999999999962E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0000000000000006E-2</c:v>
+                  <c:v>8.1750000000000017E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0000000000000008E-2</c:v>
+                  <c:v>6.5500000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                  <c:v>4.9249999999999988E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.06</c:v>
+                  <c:v>3.2999999999999974E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9999999999999993E-2</c:v>
+                  <c:v>1.6749999999999959E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.08</c:v>
+                  <c:v>4.9999999999994493E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.09</c:v>
+                  <c:v>-1.5750000000000069E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.9999999999999992E-2</c:v>
+                  <c:v>-3.1999999999999945E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10999999999999999</c:v>
+                  <c:v>-4.8250000000000237E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -493,24 +297,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7B7D-A143-AA4E-04D739BEF228}"/>
+              <c16:uniqueId val="{00000000-222A-E942-AE5D-95DA7709A7C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Performance Fee</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -537,7 +330,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$12</c:f>
+              <c:f>EQCHX!$K$3:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -576,39 +369,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$12</c:f>
+              <c:f>EQCHX!$O$3:$O$12</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.0000%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.6100000000000002E-2</c:v>
+                  <c:v>-7.5999999999999991E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4800000000000005E-2</c:v>
+                  <c:v>-1.14E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3500000000000011E-2</c:v>
+                  <c:v>-1.5199999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2200000000000003E-2</c:v>
+                  <c:v>-1.8999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0899999999999996E-2</c:v>
+                  <c:v>-2.2800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9599999999999995E-2</c:v>
+                  <c:v>-2.6599999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8299999999999995E-2</c:v>
+                  <c:v>-3.0399999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6999999999999994E-2</c:v>
+                  <c:v>-3.4199999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.5699999999999993E-2</c:v>
+                  <c:v>-3.7999999999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10439999999999998</c:v>
+                  <c:v>-4.179999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -616,106 +409,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-7B7D-A143-AA4E-04D739BEF228}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$Q$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> @ Sharpe de 0.4 y Performance de 13%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$K$3:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.5000000000000011E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.22499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.24999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.27499999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Q$3:$Q$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.7400000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6100000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4800000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.3500000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.2199999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0899999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.9599999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.8299999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.6999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.5699999999999993E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-7B7D-A143-AA4E-04D739BEF228}"/>
+              <c16:uniqueId val="{00000001-222A-E942-AE5D-95DA7709A7C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -839,12 +533,40 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -877,6 +599,663 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chesapeake Mutual Fund: Sharpe 0.5x, Retorno anualizado 7.3%</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>vs.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fondo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> con 0.5% de Management Fee, 13% de Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18132434494639219"/>
+          <c:y val="0.17560247133287446"/>
+          <c:w val="0.80768664406459678"/>
+          <c:h val="0.60632288501250764"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EQCHX!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sólo Management Fee</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>EQCHX!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27499999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EQCHX!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7500000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13749999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DE1-084E-8FE9-83257FFC1CA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EQCHX!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Performance Fee</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>EQCHX!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27499999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EQCHX!$M$3:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.4799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5675000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6550000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7424999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8299999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.917499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10004999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11092499999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13267499999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7DE1-084E-8FE9-83257FFC1CA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1848056064"/>
+        <c:axId val="1848070256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1848056064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Volatilidad (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1848070256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1848070256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Retorno Neto</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Anualizado (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1848056064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2.5000000000000005E-2"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -888,7 +1267,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$2</c:f>
+              <c:f>AQMIX!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -923,7 +1302,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$12</c:f>
+              <c:f>AQMIX!$K$3:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -962,39 +1341,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$N$12</c:f>
+              <c:f>AQMIX!$N$3:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.0999999999999978E-3</c:v>
+                  <c:v>4.5749999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7999999999999987E-3</c:v>
+                  <c:v>3.599999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5000000000000031E-3</c:v>
+                  <c:v>2.6250000000000023E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2000000000000006E-3</c:v>
+                  <c:v>1.6500000000000056E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9999999999999802E-4</c:v>
+                  <c:v>6.7500000000000199E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.9999999999999758E-4</c:v>
+                  <c:v>-2.9999999999999472E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.7000000000000071E-3</c:v>
+                  <c:v>-1.2749999999999984E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.0000000000000027E-3</c:v>
+                  <c:v>-2.250000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.2999999999999983E-3</c:v>
+                  <c:v>-3.2250000000000056E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5.6000000000000077E-3</c:v>
+                  <c:v>-4.2000000000000093E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,7 +1414,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$12</c:f>
+              <c:f>AQMIX!$K$3:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1074,39 +1453,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$12</c:f>
+              <c:f>AQMIX!$O$3:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-2.6000000000000016E-3</c:v>
+                  <c:v>2.4000000000000028E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.9000000000000007E-3</c:v>
+                  <c:v>3.6000000000000025E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.2000000000000032E-3</c:v>
+                  <c:v>4.8000000000000057E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.4999999999999988E-3</c:v>
+                  <c:v>6.0000000000000053E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.8000000000000014E-3</c:v>
+                  <c:v>7.1999999999999981E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.099999999999997E-3</c:v>
+                  <c:v>8.3999999999999977E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.0400000000000006E-2</c:v>
+                  <c:v>9.6000000000000044E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.1700000000000002E-2</c:v>
+                  <c:v>1.0800000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.2999999999999998E-2</c:v>
+                  <c:v>1.2000000000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.4299999999999993E-2</c:v>
+                  <c:v>1.3200000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,6 +1669,663 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AQR Futures Fund: Sharpe 0.3x, Retorno anualizado 2.6%</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>vs.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fondo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> con 0.5% de Management Fee, 13% de Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18132434494639219"/>
+          <c:y val="0.17560247133287446"/>
+          <c:w val="0.80768664406459678"/>
+          <c:h val="0.60632288501250764"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AQMIX!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sólo Management Fee</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>AQMIX!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27499999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AQMIX!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2500000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9999999999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7499999999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4999999999999983E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.249999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F589-5843-A53E-A80813C2A48E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AQMIX!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Performance Fee</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>AQMIX!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27499999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AQMIX!$M$3:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.9574999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2625000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9150000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5675E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8724999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5249999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1774999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8299999999999981E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F589-5843-A53E-A80813C2A48E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1848056064"/>
+        <c:axId val="1848070256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1848056064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Volatilidad (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1848070256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1848070256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Retorno Neto</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Anualizado (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1848056064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2.5000000000000005E-2"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1330,6 +2366,120 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1833,18 +2983,1527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -1853,11 +4512,13 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09857F93-E210-3D74-B030-8B39249B3F2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3C2B0B-97E8-EC4C-B610-237F8071B2AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1871,6 +4532,119 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375A9DBF-2D85-5C49-A5CB-B7B57B3A0470}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Down Arrow 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B345BB16-8A1B-4142-BB42-9F064DB12306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9017000" y="2527300"/>
+          <a:ext cx="787400" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Chesapeake</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1903,10 +4677,113 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D59E7F59-0DAC-604A-90E5-5DE1C1D1D9FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Down Arrow 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B8D171-5943-672C-7E9E-1B9E9590679B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7226300" y="3441700"/>
+          <a:ext cx="787400" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>AQR</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2208,11 +5085,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4835053-7857-D046-93FA-3694651831AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A36CB7-AE2F-424C-B896-E103D3F4D896}">
   <dimension ref="B1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2223,6 +5100,7 @@
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.2">
@@ -2232,7 +5110,7 @@
       <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2262,10 +5140,10 @@
       <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N2" t="s">
@@ -2284,55 +5162,55 @@
         <v>0.05</v>
       </c>
       <c r="C3" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
         <f>D3*B3</f>
-        <v>2.0000000000000004E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F3" s="4">
         <f>E3+C3</f>
-        <v>3.5000000000000003E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G3" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H3" s="4">
         <f>F3-G3</f>
-        <v>3.0000000000000002E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I3" s="1">
         <v>0.13</v>
       </c>
       <c r="J3" s="5">
         <f>H3*(1-I3)</f>
-        <v>2.6100000000000002E-2</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="K3" s="1">
         <f>B3</f>
         <v>0.05</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="7">
         <f>E3</f>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="M3" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M3" s="7">
         <f>J3</f>
-        <v>2.6100000000000002E-2</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="N3" s="1">
         <f>M3-L3</f>
-        <v>6.0999999999999978E-3</v>
+        <v>9.7999999999999962E-3</v>
       </c>
       <c r="O3" s="5">
         <f>Q3-L3</f>
-        <v>-2.6000000000000016E-3</v>
+        <v>-7.5999999999999991E-3</v>
       </c>
       <c r="P3">
-        <f>B3*new_sharpe</f>
+        <f t="shared" ref="P3:P12" si="0">B3*new_sharpe</f>
         <v>2.0000000000000004E-2</v>
       </c>
       <c r="Q3" s="5">
@@ -2347,516 +5225,516 @@
       </c>
       <c r="C4" s="2">
         <f>C3</f>
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D4">
         <f>D3</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E12" si="0">D4*B4</f>
-        <v>3.0000000000000006E-2</v>
+        <f t="shared" ref="E4:E12" si="1">D4*B4</f>
+        <v>3.7500000000000006E-2</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:F12" si="1">E4+C4</f>
-        <v>4.5000000000000005E-2</v>
+        <f t="shared" ref="F4:F12" si="2">E4+C4</f>
+        <v>5.7500000000000009E-2</v>
       </c>
       <c r="G4" s="4">
         <f>G3</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H12" si="2">F4-G4</f>
-        <v>4.0000000000000008E-2</v>
+        <f t="shared" ref="H4:H12" si="3">F4-G4</f>
+        <v>5.2500000000000012E-2</v>
       </c>
       <c r="I4" s="1">
         <v>0.13</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4:J12" si="3">H4*(1-I4)</f>
-        <v>3.4800000000000005E-2</v>
+        <f t="shared" ref="J4:J12" si="4">H4*(1-I4)</f>
+        <v>4.5675000000000007E-2</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K12" si="4">B4</f>
+        <f t="shared" ref="K4:K12" si="5">B4</f>
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="L4" s="6">
-        <f t="shared" ref="L4:L12" si="5">E4</f>
+      <c r="L4" s="7">
+        <f t="shared" ref="L4:L12" si="6">E4</f>
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="M4" s="7">
+        <f t="shared" ref="M4:M12" si="7">J4</f>
+        <v>4.5675000000000007E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N12" si="8">M4-L4</f>
+        <v>8.1750000000000017E-3</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" ref="O4:O12" si="9">Q4-L4</f>
+        <v>-1.14E-2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
         <v>3.0000000000000006E-2</v>
       </c>
-      <c r="M4" s="6">
-        <f t="shared" ref="M4:M12" si="6">J4</f>
-        <v>3.4800000000000005E-2</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" ref="N4:N12" si="7">M4-L4</f>
-        <v>4.7999999999999987E-3</v>
-      </c>
-      <c r="O4" s="5">
-        <f t="shared" ref="O4:O12" si="8">Q4-L4</f>
-        <v>-3.9000000000000007E-3</v>
-      </c>
-      <c r="P4">
-        <f>B4*new_sharpe</f>
-        <v>3.0000000000000006E-2</v>
-      </c>
       <c r="Q4" s="5">
-        <f t="shared" ref="Q4:Q12" si="9">P4*(1-I4)</f>
+        <f t="shared" ref="Q4:Q12" si="10">P4*(1-I4)</f>
         <v>2.6100000000000005E-2</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B11" si="10">B4+2.5%</f>
+        <f t="shared" ref="B5:B11" si="11">B4+2.5%</f>
         <v>0.1</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C12" si="11">C4</f>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" ref="C5:D12" si="12">C4</f>
+        <v>0.02</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D12" si="12">D4</f>
-        <v>0.4</v>
+        <f t="shared" si="12"/>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000008E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.05</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="1"/>
-        <v>5.5000000000000007E-2</v>
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" ref="G5:G12" si="13">G4</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="2"/>
-        <v>5.000000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="I5" s="1">
         <v>0.13</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="3"/>
-        <v>4.3500000000000011E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.6550000000000003E-2</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="L5" s="6">
-        <f t="shared" si="5"/>
+      <c r="L5" s="7">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" si="7"/>
+        <v>5.6550000000000003E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="8"/>
+        <v>6.5500000000000003E-3</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="9"/>
+        <v>-1.5199999999999998E-2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M5" s="6">
-        <f t="shared" si="6"/>
-        <v>4.3500000000000011E-2</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" si="7"/>
-        <v>3.5000000000000031E-3</v>
-      </c>
-      <c r="O5" s="5">
-        <f t="shared" si="8"/>
-        <v>-5.2000000000000032E-3</v>
-      </c>
-      <c r="P5">
-        <f>B5*new_sharpe</f>
-        <v>4.0000000000000008E-2</v>
-      </c>
       <c r="Q5" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.4800000000000005E-2</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.125</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="11"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.02</v>
       </c>
       <c r="D6">
         <f t="shared" si="12"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="1"/>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="2"/>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="13"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="2"/>
-        <v>6.0000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="I6" s="1">
         <v>0.13</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="3"/>
-        <v>5.2200000000000003E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.7424999999999999E-2</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
-      <c r="L6" s="6">
-        <f t="shared" si="5"/>
+      <c r="L6" s="7">
+        <f t="shared" si="6"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="7"/>
+        <v>6.7424999999999999E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="8"/>
+        <v>4.9249999999999988E-3</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="9"/>
+        <v>-1.8999999999999996E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M6" s="6">
-        <f t="shared" si="6"/>
-        <v>5.2200000000000003E-2</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="7"/>
-        <v>2.2000000000000006E-3</v>
-      </c>
-      <c r="O6" s="5">
-        <f t="shared" si="8"/>
-        <v>-6.4999999999999988E-3</v>
-      </c>
-      <c r="P6">
-        <f>B6*new_sharpe</f>
-        <v>0.05</v>
-      </c>
       <c r="Q6" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.3500000000000004E-2</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="11"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.02</v>
       </c>
       <c r="D7">
         <f t="shared" si="12"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
-      </c>
-      <c r="F7" s="4">
         <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="2"/>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="13"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="2"/>
-        <v>6.9999999999999993E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.09</v>
       </c>
       <c r="I7" s="1">
         <v>0.13</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="3"/>
-        <v>6.0899999999999996E-2</v>
+        <f t="shared" si="4"/>
+        <v>7.8299999999999995E-2</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15</v>
       </c>
-      <c r="L7" s="6">
-        <f t="shared" si="5"/>
+      <c r="L7" s="7">
+        <f t="shared" si="6"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="7"/>
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="8"/>
+        <v>3.2999999999999974E-3</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="9"/>
+        <v>-2.2800000000000001E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="M7" s="6">
-        <f t="shared" si="6"/>
-        <v>6.0899999999999996E-2</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="7"/>
-        <v>8.9999999999999802E-4</v>
-      </c>
-      <c r="O7" s="5">
-        <f t="shared" si="8"/>
-        <v>-7.8000000000000014E-3</v>
-      </c>
-      <c r="P7">
-        <f>B7*new_sharpe</f>
-        <v>0.06</v>
-      </c>
       <c r="Q7" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.2199999999999996E-2</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="11"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.02</v>
       </c>
       <c r="D8">
         <f t="shared" si="12"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>6.9999999999999993E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="1"/>
-        <v>8.4999999999999992E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.1075</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="13"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="2"/>
-        <v>7.9999999999999988E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.10249999999999999</v>
       </c>
       <c r="I8" s="1">
         <v>0.13</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="3"/>
-        <v>6.9599999999999995E-2</v>
+        <f t="shared" si="4"/>
+        <v>8.917499999999999E-2</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="L8" s="6">
-        <f t="shared" si="5"/>
+      <c r="L8" s="7">
+        <f t="shared" si="6"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" si="7"/>
+        <v>8.917499999999999E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="8"/>
+        <v>1.6749999999999959E-3</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="9"/>
+        <v>-2.6599999999999999E-2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="M8" s="6">
-        <f t="shared" si="6"/>
-        <v>6.9599999999999995E-2</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="7"/>
-        <v>-3.9999999999999758E-4</v>
-      </c>
-      <c r="O8" s="5">
-        <f t="shared" si="8"/>
-        <v>-9.099999999999997E-3</v>
-      </c>
-      <c r="P8">
-        <f>B8*new_sharpe</f>
-        <v>6.9999999999999993E-2</v>
-      </c>
       <c r="Q8" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.0899999999999996E-2</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="11"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.02</v>
       </c>
       <c r="D9">
         <f t="shared" si="12"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
+        <f t="shared" si="1"/>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="1"/>
-        <v>9.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.12</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="13"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
+        <f t="shared" si="3"/>
+        <v>0.11499999999999999</v>
       </c>
       <c r="I9" s="1">
         <v>0.13</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="3"/>
-        <v>7.8299999999999995E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.10004999999999999</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="L9" s="6">
-        <f t="shared" si="5"/>
+      <c r="L9" s="7">
+        <f t="shared" si="6"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.10004999999999999</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="8"/>
+        <v>4.9999999999994493E-5</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="9"/>
+        <v>-3.0399999999999996E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M9" s="6">
-        <f t="shared" si="6"/>
-        <v>7.8299999999999995E-2</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" si="7"/>
-        <v>-1.7000000000000071E-3</v>
-      </c>
-      <c r="O9" s="5">
-        <f t="shared" si="8"/>
-        <v>-1.0400000000000006E-2</v>
-      </c>
-      <c r="P9">
-        <f>B9*new_sharpe</f>
-        <v>0.08</v>
-      </c>
       <c r="Q9" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.9599999999999995E-2</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.22499999999999998</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="11"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.02</v>
       </c>
       <c r="D10">
         <f t="shared" si="12"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.09</v>
+        <f t="shared" si="1"/>
+        <v>0.11249999999999999</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.105</v>
+        <f t="shared" si="2"/>
+        <v>0.13249999999999998</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="13"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="2"/>
-        <v>9.9999999999999992E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.12749999999999997</v>
       </c>
       <c r="I10" s="1">
         <v>0.13</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="3"/>
-        <v>8.6999999999999994E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.11092499999999998</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22499999999999998</v>
       </c>
-      <c r="L10" s="6">
-        <f t="shared" si="5"/>
+      <c r="L10" s="7">
+        <f t="shared" si="6"/>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="M10" s="7">
+        <f t="shared" si="7"/>
+        <v>0.11092499999999998</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.5750000000000069E-3</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="9"/>
+        <v>-3.4199999999999994E-2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
-      <c r="M10" s="6">
-        <f t="shared" si="6"/>
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="N10" s="1">
-        <f t="shared" si="7"/>
-        <v>-3.0000000000000027E-3</v>
-      </c>
-      <c r="O10" s="5">
-        <f t="shared" si="8"/>
-        <v>-1.1700000000000002E-2</v>
-      </c>
-      <c r="P10">
-        <f>B10*new_sharpe</f>
-        <v>0.09</v>
-      </c>
       <c r="Q10" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.8299999999999995E-2</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.24999999999999997</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="11"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.02</v>
       </c>
       <c r="D11">
         <f t="shared" si="12"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>9.9999999999999992E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.12499999999999999</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="1"/>
-        <v>0.11499999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.14499999999999999</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="13"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="2"/>
-        <v>0.10999999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.13999999999999999</v>
       </c>
       <c r="I11" s="1">
         <v>0.13</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="3"/>
-        <v>9.5699999999999993E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.12179999999999999</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.24999999999999997</v>
       </c>
-      <c r="L11" s="6">
-        <f t="shared" si="5"/>
+      <c r="L11" s="7">
+        <f t="shared" si="6"/>
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" si="7"/>
+        <v>0.12179999999999999</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="8"/>
+        <v>-3.1999999999999945E-3</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="9"/>
+        <v>-3.7999999999999992E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="M11" s="6">
-        <f t="shared" si="6"/>
-        <v>9.5699999999999993E-2</v>
-      </c>
-      <c r="N11" s="1">
-        <f t="shared" si="7"/>
-        <v>-4.2999999999999983E-3</v>
-      </c>
-      <c r="O11" s="5">
-        <f t="shared" si="8"/>
-        <v>-1.2999999999999998E-2</v>
-      </c>
-      <c r="P11">
-        <f>B11*new_sharpe</f>
-        <v>9.9999999999999992E-2</v>
-      </c>
       <c r="Q11" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
@@ -2866,67 +5744,797 @@
         <v>0.27499999999999997</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="11"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.02</v>
       </c>
       <c r="D12">
         <f t="shared" si="12"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0.10999999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.13749999999999998</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.12499999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.15749999999999997</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="13"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="2"/>
-        <v>0.11999999999999998</v>
+        <f t="shared" si="3"/>
+        <v>0.15249999999999997</v>
       </c>
       <c r="I12" s="1">
         <v>0.13</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="3"/>
-        <v>0.10439999999999998</v>
+        <f t="shared" si="4"/>
+        <v>0.13267499999999996</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27499999999999997</v>
       </c>
-      <c r="L12" s="6">
-        <f t="shared" si="5"/>
+      <c r="L12" s="7">
+        <f t="shared" si="6"/>
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="7"/>
+        <v>0.13267499999999996</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="8"/>
+        <v>-4.8250000000000237E-3</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="9"/>
+        <v>-4.179999999999999E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
         <v>0.10999999999999999</v>
       </c>
-      <c r="M12" s="6">
-        <f t="shared" si="6"/>
-        <v>0.10439999999999998</v>
-      </c>
-      <c r="N12" s="1">
-        <f t="shared" si="7"/>
-        <v>-5.6000000000000077E-3</v>
-      </c>
-      <c r="O12" s="5">
-        <f t="shared" si="8"/>
-        <v>-1.4299999999999993E-2</v>
-      </c>
-      <c r="P12">
-        <f>B12*new_sharpe</f>
-        <v>0.10999999999999999</v>
-      </c>
       <c r="Q12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.5699999999999993E-2</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C14" s="7">
+      <c r="C14" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4835053-7857-D046-93FA-3694651831AC}">
+  <dimension ref="B1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="str">
+        <f>C2</f>
+        <v>Management Fee</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>" @ Sharpe de "&amp;new_sharpe&amp;" y Performance de "&amp;+TEXT(I3,"##%")</f>
+        <v xml:space="preserve"> @ Sharpe de 0.4 y Performance de 13%</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.3</v>
+      </c>
+      <c r="E3">
+        <f>D3*B3</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <f>E3+C3</f>
+        <v>2.75E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H3" s="4">
+        <f>F3-G3</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J3" s="5">
+        <f>H3*(1-I3)</f>
+        <v>1.9574999999999999E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <f>B3</f>
+        <v>0.05</v>
+      </c>
+      <c r="L3" s="7">
+        <f>E3</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M3" s="7">
+        <f>J3</f>
+        <v>1.9574999999999999E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <f>M3-L3</f>
+        <v>4.5749999999999992E-3</v>
+      </c>
+      <c r="O3" s="5">
+        <f>Q3-L3</f>
+        <v>2.4000000000000028E-3</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P12" si="0">B3*new_sharpe</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="Q3" s="5">
+        <f>P3*(1-I3)</f>
+        <v>1.7400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <f>B3+2.5%</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <f>C3</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <f>D3</f>
+        <v>0.3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E12" si="1">D4*B4</f>
+        <v>2.2500000000000003E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F12" si="2">E4+C4</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G4" s="4">
+        <f>G3</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H12" si="3">F4-G4</f>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:J12" si="4">H4*(1-I4)</f>
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K12" si="5">B4</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" ref="L4:L12" si="6">E4</f>
+        <v>2.2500000000000003E-2</v>
+      </c>
+      <c r="M4" s="7">
+        <f t="shared" ref="M4:M12" si="7">J4</f>
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N12" si="8">M4-L4</f>
+        <v>3.599999999999999E-3</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" ref="O4:O12" si="9">Q4-L4</f>
+        <v>3.6000000000000025E-3</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000006E-2</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" ref="Q4:Q12" si="10">P4*(1-I4)</f>
+        <v>2.6100000000000005E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <f t="shared" ref="B5:B11" si="11">B4+2.5%</f>
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:C12" si="12">C4</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D12" si="13">D4</f>
+        <v>0.3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="2"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G12" si="14">G4</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="3"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="4"/>
+        <v>3.2625000000000001E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" si="7"/>
+        <v>3.2625000000000001E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="8"/>
+        <v>2.6250000000000023E-3</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="9"/>
+        <v>4.8000000000000057E-3</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="10"/>
+        <v>3.4800000000000005E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="14"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="3"/>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="4"/>
+        <v>3.9150000000000004E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="6"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="7"/>
+        <v>3.9150000000000004E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="8"/>
+        <v>1.6500000000000056E-3</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="9"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="10"/>
+        <v>4.3500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <f t="shared" si="11"/>
+        <v>0.15</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="2"/>
+        <v>5.7499999999999996E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="14"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="3"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="4"/>
+        <v>4.5675E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="6"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="7"/>
+        <v>4.5675E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="8"/>
+        <v>6.7500000000000199E-4</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="9"/>
+        <v>7.1999999999999981E-3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="10"/>
+        <v>5.2199999999999996E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <f t="shared" si="11"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="2"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="14"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="4"/>
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" si="6"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" si="7"/>
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="8"/>
+        <v>-2.9999999999999472E-4</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="9"/>
+        <v>8.3999999999999977E-3</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="10"/>
+        <v>6.0899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <f t="shared" si="11"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999991E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="14"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="3"/>
+        <v>6.7499999999999991E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="4"/>
+        <v>5.8724999999999992E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="6"/>
+        <v>5.9999999999999991E-2</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="7"/>
+        <v>5.8724999999999992E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.2749999999999984E-3</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="9"/>
+        <v>9.6000000000000044E-3</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="10"/>
+        <v>6.9599999999999995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <f t="shared" si="11"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>6.7499999999999991E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999988E-2</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="14"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999983E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="4"/>
+        <v>6.5249999999999989E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" si="6"/>
+        <v>6.7499999999999991E-2</v>
+      </c>
+      <c r="M10" s="7">
+        <f t="shared" si="7"/>
+        <v>6.5249999999999989E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="8"/>
+        <v>-2.250000000000002E-3</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="9"/>
+        <v>1.0800000000000004E-2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="10"/>
+        <v>7.8299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <f t="shared" si="11"/>
+        <v>0.24999999999999997</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999983E-2</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>8.7499999999999981E-2</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="14"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="3"/>
+        <v>8.2499999999999976E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="4"/>
+        <v>7.1774999999999978E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.24999999999999997</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="6"/>
+        <v>7.4999999999999983E-2</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" si="7"/>
+        <v>7.1774999999999978E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="8"/>
+        <v>-3.2250000000000056E-3</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="9"/>
+        <v>1.2000000000000011E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="10"/>
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <f>B11+2.5%</f>
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>8.249999999999999E-2</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>9.4999999999999987E-2</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="14"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999983E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="4"/>
+        <v>7.8299999999999981E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="6"/>
+        <v>8.249999999999999E-2</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="7"/>
+        <v>7.8299999999999981E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="8"/>
+        <v>-4.2000000000000093E-3</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="9"/>
+        <v>1.3200000000000003E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="10"/>
+        <v>9.5699999999999993E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C14" s="6">
         <v>0.4</v>
       </c>
     </row>

--- a/presentations/Comparativo de fees fijos y variables.xlsx
+++ b/presentations/Comparativo de fees fijos y variables.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresp/Documents/R Projects/Trading bloque/presentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2DB92D-DDFD-FA4D-B673-C951885210DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A207885-0BD7-B949-AE57-41AAA8662DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FF18EC40-325D-4549-B661-1A48975C421C}"/>
   </bookViews>
   <sheets>
-    <sheet name="EQCHX" sheetId="2" r:id="rId1"/>
-    <sheet name="AQMIX" sheetId="1" r:id="rId2"/>
+    <sheet name="AQMIX (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="EQCHX" sheetId="2" r:id="rId2"/>
+    <sheet name="AQMIX" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="new_sharpe" localSheetId="0">EQCHX!$C$14</definedName>
+    <definedName name="new_sharpe" localSheetId="0">'AQMIX (2)'!$C$14</definedName>
+    <definedName name="new_sharpe" localSheetId="1">EQCHX!$C$14</definedName>
     <definedName name="new_sharpe">AQMIX!$C$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>Retorno Neto</t>
   </si>
@@ -183,7 +185,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>EQCHX!$N$2</c:f>
+              <c:f>'AQMIX (2)'!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -218,7 +220,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>EQCHX!$K$3:$K$12</c:f>
+              <c:f>'AQMIX (2)'!$K$3:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -257,39 +259,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EQCHX!$N$3:$N$12</c:f>
+              <c:f>'AQMIX (2)'!$N$3:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.7999999999999962E-3</c:v>
+                  <c:v>4.7999999999999987E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1750000000000017E-3</c:v>
+                  <c:v>2.8499999999999984E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5500000000000003E-3</c:v>
+                  <c:v>8.9999999999999802E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9249999999999988E-3</c:v>
+                  <c:v>-1.0500000000000093E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2999999999999974E-3</c:v>
+                  <c:v>-3.0000000000000027E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6749999999999959E-3</c:v>
+                  <c:v>-4.9500000000000099E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9999999999994493E-5</c:v>
+                  <c:v>-6.9000000000000034E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.5750000000000069E-3</c:v>
+                  <c:v>-8.8500000000000245E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.1999999999999945E-3</c:v>
+                  <c:v>-1.0799999999999976E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.8250000000000237E-3</c:v>
+                  <c:v>-1.2749999999999984E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -297,7 +299,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-222A-E942-AE5D-95DA7709A7C8}"/>
+              <c16:uniqueId val="{00000000-72F1-5942-88E8-5D092F31FDE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -330,7 +332,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>EQCHX!$K$3:$K$12</c:f>
+              <c:f>'AQMIX (2)'!$K$3:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -369,39 +371,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EQCHX!$O$3:$O$12</c:f>
+              <c:f>'AQMIX (2)'!$O$3:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-7.5999999999999991E-3</c:v>
+                  <c:v>-1.2599999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.14E-2</c:v>
+                  <c:v>-1.89E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.5199999999999998E-2</c:v>
+                  <c:v>-2.5199999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.8999999999999996E-2</c:v>
+                  <c:v>-3.1499999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.2800000000000001E-2</c:v>
+                  <c:v>-3.78E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.6599999999999999E-2</c:v>
+                  <c:v>-4.41E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.0399999999999996E-2</c:v>
+                  <c:v>-5.0399999999999986E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.4199999999999994E-2</c:v>
+                  <c:v>-5.6699999999999987E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.7999999999999992E-2</c:v>
+                  <c:v>-6.2999999999999973E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.179999999999999E-2</c:v>
+                  <c:v>-6.9299999999999987E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -409,7 +411,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-222A-E942-AE5D-95DA7709A7C8}"/>
+              <c16:uniqueId val="{00000001-72F1-5942-88E8-5D092F31FDE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -620,6 +622,1090 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>PIMCO Futures Fund: Sharpe 0.6x, Retorno anualizado 6.1%</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>vs.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fondo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> con 0.5% de Management Fee, 13% de Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18132434494639219"/>
+          <c:y val="0.17560247133287446"/>
+          <c:w val="0.80768664406459678"/>
+          <c:h val="0.60632288501250764"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AQMIX (2)'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sólo Management Fee</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'AQMIX (2)'!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27499999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AQMIX (2)'!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BBE8-F341-9108-F9E72403C926}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AQMIX (2)'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Performance Fee</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'AQMIX (2)'!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27499999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AQMIX (2)'!$M$3:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.4799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7850000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3949999999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10004999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11309999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12614999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BBE8-F341-9108-F9E72403C926}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1848056064"/>
+        <c:axId val="1848070256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1848056064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Volatilidad (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1848070256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1848070256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Retorno Neto</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Anualizado (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1848056064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EQCHX!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manager 2 - Manager 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>EQCHX!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27499999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EQCHX!$N$3:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.7999999999999962E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1750000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9249999999999988E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2999999999999974E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6749999999999959E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9999999999994493E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5750000000000069E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.1999999999999945E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.8250000000000237E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-222A-E942-AE5D-95DA7709A7C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>EQCHX!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27499999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EQCHX!$O$3:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-7.5999999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.14E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.5199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.2800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.6599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.0399999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.4199999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.7999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.179999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-222A-E942-AE5D-95DA7709A7C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1167737232"/>
+        <c:axId val="1167717168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1167737232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1167717168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1167717168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1167737232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Chesapeake Mutual Fund: Sharpe 0.5x, Retorno anualizado 7.3%</a:t>
             </a:r>
           </a:p>
@@ -1033,7 +2119,6 @@
         <c:axId val="1848070256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1145,7 +2230,7 @@
         <c:crossAx val="1848056064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2.5000000000000005E-2"/>
+        <c:majorUnit val="3.7500000000000006E-2"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
@@ -1242,7 +2327,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1669,7 +2754,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2480,6 +3565,83 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4492,7 +5654,1164 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA102A61-5503-994E-8FD8-970DFCCED7DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3A3B47-F266-EF4F-90B6-CE7D28C10E6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Down Arrow 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C3412B-0257-8641-B0B5-E658882AFA44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7531100" y="3467100"/>
+          <a:ext cx="787400" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>PIMCO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4643,7 +6962,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5085,11 +7404,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A36CB7-AE2F-424C-B896-E103D3F4D896}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E885FB2-F4F5-124C-BAE0-8F574778C02C}">
   <dimension ref="B1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5162,14 +7481,14 @@
         <v>0.05</v>
       </c>
       <c r="C3" s="2">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E3">
         <f>D3*B3</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F3" s="4">
         <f>E3+C3</f>
@@ -5195,7 +7514,7 @@
       </c>
       <c r="L3" s="7">
         <f>E3</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="M3" s="7">
         <f>J3</f>
@@ -5203,11 +7522,11 @@
       </c>
       <c r="N3" s="1">
         <f>M3-L3</f>
-        <v>9.7999999999999962E-3</v>
+        <v>4.7999999999999987E-3</v>
       </c>
       <c r="O3" s="5">
         <f>Q3-L3</f>
-        <v>-7.5999999999999991E-3</v>
+        <v>-1.2599999999999997E-2</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P12" si="0">B3*new_sharpe</f>
@@ -5225,19 +7544,19 @@
       </c>
       <c r="C4" s="2">
         <f>C3</f>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D4">
         <f>D3</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E12" si="1">D4*B4</f>
-        <v>3.7500000000000006E-2</v>
+        <v>4.5000000000000005E-2</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4:F12" si="2">E4+C4</f>
-        <v>5.7500000000000009E-2</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="G4" s="4">
         <f>G3</f>
@@ -5245,14 +7564,14 @@
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H12" si="3">F4-G4</f>
-        <v>5.2500000000000012E-2</v>
+        <v>5.5000000000000007E-2</v>
       </c>
       <c r="I4" s="1">
         <v>0.13</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ref="J4:J12" si="4">H4*(1-I4)</f>
-        <v>4.5675000000000007E-2</v>
+        <v>4.7850000000000004E-2</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4:K12" si="5">B4</f>
@@ -5260,19 +7579,19 @@
       </c>
       <c r="L4" s="7">
         <f t="shared" ref="L4:L12" si="6">E4</f>
-        <v>3.7500000000000006E-2</v>
+        <v>4.5000000000000005E-2</v>
       </c>
       <c r="M4" s="7">
         <f t="shared" ref="M4:M12" si="7">J4</f>
-        <v>4.5675000000000007E-2</v>
+        <v>4.7850000000000004E-2</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:N12" si="8">M4-L4</f>
-        <v>8.1750000000000017E-3</v>
+        <v>2.8499999999999984E-3</v>
       </c>
       <c r="O4" s="5">
         <f t="shared" ref="O4:O12" si="9">Q4-L4</f>
-        <v>-1.14E-2</v>
+        <v>-1.89E-2</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
@@ -5290,19 +7609,19 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:D12" si="12">C4</f>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D5">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" ref="G5:G12" si="13">G4</f>
@@ -5310,14 +7629,14 @@
       </c>
       <c r="H5" s="4">
         <f t="shared" si="3"/>
-        <v>6.5000000000000002E-2</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="I5" s="1">
         <v>0.13</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" si="4"/>
-        <v>5.6550000000000003E-2</v>
+        <v>6.0899999999999996E-2</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="5"/>
@@ -5325,19 +7644,19 @@
       </c>
       <c r="L5" s="7">
         <f t="shared" si="6"/>
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="M5" s="7">
         <f t="shared" si="7"/>
-        <v>5.6550000000000003E-2</v>
+        <v>6.0899999999999996E-2</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="8"/>
-        <v>6.5500000000000003E-3</v>
+        <v>8.9999999999999802E-4</v>
       </c>
       <c r="O5" s="5">
         <f t="shared" si="9"/>
-        <v>-1.5199999999999998E-2</v>
+        <v>-2.5199999999999993E-2</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
@@ -5355,19 +7674,19 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="12"/>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D6">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>6.25E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>0.09</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="13"/>
@@ -5375,14 +7694,14 @@
       </c>
       <c r="H6" s="4">
         <f t="shared" si="3"/>
-        <v>7.7499999999999999E-2</v>
+        <v>8.4999999999999992E-2</v>
       </c>
       <c r="I6" s="1">
         <v>0.13</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" si="4"/>
-        <v>6.7424999999999999E-2</v>
+        <v>7.3949999999999988E-2</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="5"/>
@@ -5390,19 +7709,19 @@
       </c>
       <c r="L6" s="7">
         <f t="shared" si="6"/>
-        <v>6.25E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="M6" s="7">
         <f t="shared" si="7"/>
-        <v>6.7424999999999999E-2</v>
+        <v>7.3949999999999988E-2</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="8"/>
-        <v>4.9249999999999988E-3</v>
+        <v>-1.0500000000000093E-3</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" si="9"/>
-        <v>-1.8999999999999996E-2</v>
+        <v>-3.1499999999999993E-2</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
@@ -5420,19 +7739,19 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="12"/>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D7">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.09</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="2"/>
-        <v>9.5000000000000001E-2</v>
+        <v>0.105</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="13"/>
@@ -5440,14 +7759,14 @@
       </c>
       <c r="H7" s="4">
         <f t="shared" si="3"/>
-        <v>0.09</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="I7" s="1">
         <v>0.13</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" si="4"/>
-        <v>7.8299999999999995E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="5"/>
@@ -5455,19 +7774,19 @@
       </c>
       <c r="L7" s="7">
         <f t="shared" si="6"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.09</v>
       </c>
       <c r="M7" s="7">
         <f t="shared" si="7"/>
-        <v>7.8299999999999995E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="8"/>
-        <v>3.2999999999999974E-3</v>
+        <v>-3.0000000000000027E-3</v>
       </c>
       <c r="O7" s="5">
         <f t="shared" si="9"/>
-        <v>-2.2800000000000001E-2</v>
+        <v>-3.78E-2</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
@@ -5485,19 +7804,19 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="12"/>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D8">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>8.7499999999999994E-2</v>
+        <v>0.105</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="2"/>
-        <v>0.1075</v>
+        <v>0.12</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="13"/>
@@ -5505,14 +7824,14 @@
       </c>
       <c r="H8" s="4">
         <f t="shared" si="3"/>
-        <v>0.10249999999999999</v>
+        <v>0.11499999999999999</v>
       </c>
       <c r="I8" s="1">
         <v>0.13</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" si="4"/>
-        <v>8.917499999999999E-2</v>
+        <v>0.10004999999999999</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="5"/>
@@ -5520,19 +7839,19 @@
       </c>
       <c r="L8" s="7">
         <f t="shared" si="6"/>
-        <v>8.7499999999999994E-2</v>
+        <v>0.105</v>
       </c>
       <c r="M8" s="7">
         <f t="shared" si="7"/>
-        <v>8.917499999999999E-2</v>
+        <v>0.10004999999999999</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="8"/>
-        <v>1.6749999999999959E-3</v>
+        <v>-4.9500000000000099E-3</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" si="9"/>
-        <v>-2.6599999999999999E-2</v>
+        <v>-4.41E-2</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
@@ -5550,19 +7869,19 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="12"/>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D9">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>9.9999999999999992E-2</v>
+        <v>0.11999999999999998</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="13"/>
@@ -5570,14 +7889,14 @@
       </c>
       <c r="H9" s="4">
         <f t="shared" si="3"/>
-        <v>0.11499999999999999</v>
+        <v>0.12999999999999998</v>
       </c>
       <c r="I9" s="1">
         <v>0.13</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="4"/>
-        <v>0.10004999999999999</v>
+        <v>0.11309999999999998</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="5"/>
@@ -5585,19 +7904,19 @@
       </c>
       <c r="L9" s="7">
         <f t="shared" si="6"/>
-        <v>9.9999999999999992E-2</v>
+        <v>0.11999999999999998</v>
       </c>
       <c r="M9" s="7">
         <f t="shared" si="7"/>
-        <v>0.10004999999999999</v>
+        <v>0.11309999999999998</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="8"/>
-        <v>4.9999999999994493E-5</v>
+        <v>-6.9000000000000034E-3</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" si="9"/>
-        <v>-3.0399999999999996E-2</v>
+        <v>-5.0399999999999986E-2</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
@@ -5615,19 +7934,19 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="12"/>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D10">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>0.11249999999999999</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="2"/>
-        <v>0.13249999999999998</v>
+        <v>0.14999999999999997</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="13"/>
@@ -5635,14 +7954,14 @@
       </c>
       <c r="H10" s="4">
         <f t="shared" si="3"/>
-        <v>0.12749999999999997</v>
+        <v>0.14499999999999996</v>
       </c>
       <c r="I10" s="1">
         <v>0.13</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="4"/>
-        <v>0.11092499999999998</v>
+        <v>0.12614999999999996</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="5"/>
@@ -5650,19 +7969,19 @@
       </c>
       <c r="L10" s="7">
         <f t="shared" si="6"/>
-        <v>0.11249999999999999</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="M10" s="7">
         <f t="shared" si="7"/>
-        <v>0.11092499999999998</v>
+        <v>0.12614999999999996</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="8"/>
-        <v>-1.5750000000000069E-3</v>
+        <v>-8.8500000000000245E-3</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" si="9"/>
-        <v>-3.4199999999999994E-2</v>
+        <v>-5.6699999999999987E-2</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
@@ -5680,19 +7999,19 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="12"/>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D11">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>0.12499999999999999</v>
+        <v>0.14999999999999997</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="2"/>
-        <v>0.14499999999999999</v>
+        <v>0.16499999999999998</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="13"/>
@@ -5700,14 +8019,14 @@
       </c>
       <c r="H11" s="4">
         <f t="shared" si="3"/>
-        <v>0.13999999999999999</v>
+        <v>0.15999999999999998</v>
       </c>
       <c r="I11" s="1">
         <v>0.13</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="4"/>
-        <v>0.12179999999999999</v>
+        <v>0.13919999999999999</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="5"/>
@@ -5715,19 +8034,19 @@
       </c>
       <c r="L11" s="7">
         <f t="shared" si="6"/>
-        <v>0.12499999999999999</v>
+        <v>0.14999999999999997</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" si="7"/>
-        <v>0.12179999999999999</v>
+        <v>0.13919999999999999</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="8"/>
-        <v>-3.1999999999999945E-3</v>
+        <v>-1.0799999999999976E-2</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" si="9"/>
-        <v>-3.7999999999999992E-2</v>
+        <v>-6.2999999999999973E-2</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
@@ -5745,19 +8064,19 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="12"/>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D12">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>0.13749999999999998</v>
+        <v>0.16499999999999998</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
-        <v>0.15749999999999997</v>
+        <v>0.18</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="13"/>
@@ -5765,14 +8084,14 @@
       </c>
       <c r="H12" s="4">
         <f t="shared" si="3"/>
-        <v>0.15249999999999997</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="I12" s="1">
         <v>0.13</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" si="4"/>
-        <v>0.13267499999999996</v>
+        <v>0.15225</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="5"/>
@@ -5780,19 +8099,19 @@
       </c>
       <c r="L12" s="7">
         <f t="shared" si="6"/>
-        <v>0.13749999999999998</v>
+        <v>0.16499999999999998</v>
       </c>
       <c r="M12" s="7">
         <f t="shared" si="7"/>
-        <v>0.13267499999999996</v>
+        <v>0.15225</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="8"/>
-        <v>-4.8250000000000237E-3</v>
+        <v>-1.2749999999999984E-2</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" si="9"/>
-        <v>-4.179999999999999E-2</v>
+        <v>-6.9299999999999987E-2</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
@@ -5815,11 +8134,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4835053-7857-D046-93FA-3694651831AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A36CB7-AE2F-424C-B896-E103D3F4D896}">
   <dimension ref="B1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5892,6 +8211,736 @@
         <v>0.05</v>
       </c>
       <c r="C3" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <f>D3*B3</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <f>E3+C3</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H3" s="4">
+        <f>F3-G3</f>
+        <v>0.04</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J3" s="5">
+        <f>H3*(1-I3)</f>
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <f>B3</f>
+        <v>0.05</v>
+      </c>
+      <c r="L3" s="7">
+        <f>E3</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M3" s="7">
+        <f>J3</f>
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <f>M3-L3</f>
+        <v>9.7999999999999962E-3</v>
+      </c>
+      <c r="O3" s="5">
+        <f>Q3-L3</f>
+        <v>-7.5999999999999991E-3</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P12" si="0">B3*new_sharpe</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="Q3" s="5">
+        <f>P3*(1-I3)</f>
+        <v>1.7400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <f>B3+2.5%</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <f>C3</f>
+        <v>0.02</v>
+      </c>
+      <c r="D4">
+        <f>D3</f>
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E12" si="1">D4*B4</f>
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F12" si="2">E4+C4</f>
+        <v>5.7500000000000009E-2</v>
+      </c>
+      <c r="G4" s="4">
+        <f>G3</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H12" si="3">F4-G4</f>
+        <v>5.2500000000000012E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:J12" si="4">H4*(1-I4)</f>
+        <v>4.5675000000000007E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K12" si="5">B4</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" ref="L4:L12" si="6">E4</f>
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="M4" s="7">
+        <f t="shared" ref="M4:M12" si="7">J4</f>
+        <v>4.5675000000000007E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N12" si="8">M4-L4</f>
+        <v>8.1750000000000017E-3</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" ref="O4:O12" si="9">Q4-L4</f>
+        <v>-1.14E-2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000006E-2</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" ref="Q4:Q12" si="10">P4*(1-I4)</f>
+        <v>2.6100000000000005E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <f t="shared" ref="B5:B11" si="11">B4+2.5%</f>
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:D12" si="12">C4</f>
+        <v>0.02</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G12" si="13">G4</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="3"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="4"/>
+        <v>5.6550000000000003E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" si="7"/>
+        <v>5.6550000000000003E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="8"/>
+        <v>6.5500000000000003E-3</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="9"/>
+        <v>-1.5199999999999998E-2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="10"/>
+        <v>3.4800000000000005E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="2"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="13"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="3"/>
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="4"/>
+        <v>6.7424999999999999E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="6"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="7"/>
+        <v>6.7424999999999999E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="8"/>
+        <v>4.9249999999999988E-3</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="9"/>
+        <v>-1.8999999999999996E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="10"/>
+        <v>4.3500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <f t="shared" si="11"/>
+        <v>0.15</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="2"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="13"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="4"/>
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="6"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="7"/>
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="8"/>
+        <v>3.2999999999999974E-3</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="9"/>
+        <v>-2.2800000000000001E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="10"/>
+        <v>5.2199999999999996E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <f t="shared" si="11"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.1075</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="13"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="4"/>
+        <v>8.917499999999999E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" si="6"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" si="7"/>
+        <v>8.917499999999999E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="8"/>
+        <v>1.6749999999999959E-3</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="9"/>
+        <v>-2.6599999999999999E-2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="10"/>
+        <v>6.0899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <f t="shared" si="11"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="13"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10004999999999999</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="6"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.10004999999999999</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="8"/>
+        <v>4.9999999999994493E-5</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="9"/>
+        <v>-3.0399999999999996E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="10"/>
+        <v>6.9599999999999995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <f t="shared" si="11"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.13249999999999998</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="13"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="3"/>
+        <v>0.12749999999999997</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="4"/>
+        <v>0.11092499999999998</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" si="6"/>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="M10" s="7">
+        <f t="shared" si="7"/>
+        <v>0.11092499999999998</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.5750000000000069E-3</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="9"/>
+        <v>-3.4199999999999994E-2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="10"/>
+        <v>7.8299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <f t="shared" si="11"/>
+        <v>0.24999999999999997</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="13"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="3"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="4"/>
+        <v>0.12179999999999999</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.24999999999999997</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="6"/>
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" si="7"/>
+        <v>0.12179999999999999</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="8"/>
+        <v>-3.1999999999999945E-3</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="9"/>
+        <v>-3.7999999999999992E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="10"/>
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <f>B11+2.5%</f>
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.15749999999999997</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="13"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="3"/>
+        <v>0.15249999999999997</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="4"/>
+        <v>0.13267499999999996</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="6"/>
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="7"/>
+        <v>0.13267499999999996</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="8"/>
+        <v>-4.8250000000000237E-3</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="9"/>
+        <v>-4.179999999999999E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="10"/>
+        <v>9.5699999999999993E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C14" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4835053-7857-D046-93FA-3694651831AC}">
+  <dimension ref="B1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="str">
+        <f>C2</f>
+        <v>Management Fee</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>" @ Sharpe de "&amp;new_sharpe&amp;" y Performance de "&amp;+TEXT(I3,"##%")</f>
+        <v xml:space="preserve"> @ Sharpe de 0.4 y Performance de 13%</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="2">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="D3">

--- a/presentations/Comparativo de fees fijos y variables.xlsx
+++ b/presentations/Comparativo de fees fijos y variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresp/Documents/R Projects/Trading bloque/presentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A207885-0BD7-B949-AE57-41AAA8662DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F68A8B-2A9C-A54D-9576-8DE90F6EA3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FF18EC40-325D-4549-B661-1A48975C421C}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{FF18EC40-325D-4549-B661-1A48975C421C}"/>
   </bookViews>
   <sheets>
     <sheet name="AQMIX (2)" sheetId="3" r:id="rId1"/>
@@ -7407,7 +7407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E885FB2-F4F5-124C-BAE0-8F574778C02C}">
   <dimension ref="B1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -8867,7 +8867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4835053-7857-D046-93FA-3694651831AC}">
   <dimension ref="B1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>

--- a/presentations/Comparativo de fees fijos y variables.xlsx
+++ b/presentations/Comparativo de fees fijos y variables.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresp/Documents/R Projects/Trading bloque/presentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F68A8B-2A9C-A54D-9576-8DE90F6EA3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C2E1EB-6294-5249-998B-E971DCA67FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{FF18EC40-325D-4549-B661-1A48975C421C}"/>
   </bookViews>
   <sheets>
-    <sheet name="AQMIX (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="EQCHX" sheetId="2" r:id="rId2"/>
-    <sheet name="AQMIX" sheetId="1" r:id="rId3"/>
+    <sheet name="AQMIX" sheetId="1" r:id="rId1"/>
+    <sheet name="PIMCO" sheetId="3" r:id="rId2"/>
+    <sheet name="EQCHX" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="new_sharpe" localSheetId="0">'AQMIX (2)'!$C$14</definedName>
-    <definedName name="new_sharpe" localSheetId="1">EQCHX!$C$14</definedName>
+    <definedName name="new_sharpe" localSheetId="2">EQCHX!$C$14</definedName>
+    <definedName name="new_sharpe" localSheetId="1">PIMCO!$C$14</definedName>
     <definedName name="new_sharpe">AQMIX!$C$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -185,7 +185,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AQMIX (2)'!$N$2</c:f>
+              <c:f>AQMIX!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -220,7 +220,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'AQMIX (2)'!$K$3:$K$12</c:f>
+              <c:f>AQMIX!$K$3:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -259,39 +259,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AQMIX (2)'!$N$3:$N$12</c:f>
+              <c:f>AQMIX!$N$3:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.7999999999999987E-3</c:v>
+                  <c:v>4.5749999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8499999999999984E-3</c:v>
+                  <c:v>3.599999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9999999999999802E-4</c:v>
+                  <c:v>2.6250000000000023E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0500000000000093E-3</c:v>
+                  <c:v>1.6500000000000056E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.0000000000000027E-3</c:v>
+                  <c:v>6.7500000000000199E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.9500000000000099E-3</c:v>
+                  <c:v>-2.9999999999999472E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6.9000000000000034E-3</c:v>
+                  <c:v>-1.2749999999999984E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.8500000000000245E-3</c:v>
+                  <c:v>-2.250000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.0799999999999976E-2</c:v>
+                  <c:v>-3.2250000000000056E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.2749999999999984E-2</c:v>
+                  <c:v>-4.2000000000000093E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -299,7 +299,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-72F1-5942-88E8-5D092F31FDE2}"/>
+              <c16:uniqueId val="{00000000-75DB-A341-A88B-9571DAB07085}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -332,7 +332,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'AQMIX (2)'!$K$3:$K$12</c:f>
+              <c:f>AQMIX!$K$3:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -371,39 +371,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AQMIX (2)'!$O$3:$O$12</c:f>
+              <c:f>AQMIX!$O$3:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-1.2599999999999997E-2</c:v>
+                  <c:v>2.4000000000000028E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.89E-2</c:v>
+                  <c:v>3.6000000000000025E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.5199999999999993E-2</c:v>
+                  <c:v>4.8000000000000057E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.1499999999999993E-2</c:v>
+                  <c:v>6.0000000000000053E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.78E-2</c:v>
+                  <c:v>7.1999999999999981E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.41E-2</c:v>
+                  <c:v>8.3999999999999977E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.0399999999999986E-2</c:v>
+                  <c:v>9.6000000000000044E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.6699999999999987E-2</c:v>
+                  <c:v>1.0800000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6.2999999999999973E-2</c:v>
+                  <c:v>1.2000000000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6.9299999999999987E-2</c:v>
+                  <c:v>1.3200000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -411,7 +411,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-72F1-5942-88E8-5D092F31FDE2}"/>
+              <c16:uniqueId val="{00000002-75DB-A341-A88B-9571DAB07085}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -622,6 +622,1090 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>AQR Futures Fund: Sharpe 0.3x, Retorno anualizado 2.6%</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>vs.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fondo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> con 0.5% de Management Fee, 13% de Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18132434494639219"/>
+          <c:y val="0.17560247133287446"/>
+          <c:w val="0.80768664406459678"/>
+          <c:h val="0.60632288501250764"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AQMIX!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sólo Management Fee</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>AQMIX!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27499999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AQMIX!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2500000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9999999999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7499999999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4999999999999983E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.249999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F589-5843-A53E-A80813C2A48E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AQMIX!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Performance Fee</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>AQMIX!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27499999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AQMIX!$M$3:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.9574999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2625000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9150000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5675E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8724999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5249999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1774999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8299999999999981E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F589-5843-A53E-A80813C2A48E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1848056064"/>
+        <c:axId val="1848070256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1848056064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Volatilidad (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1848070256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1848070256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Retorno Neto</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Anualizado (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1848056064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2.5000000000000005E-2"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PIMCO!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manager 2 - Manager 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PIMCO!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27499999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PIMCO!$N$3:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.7999999999999987E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8499999999999984E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999802E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.0500000000000093E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.0000000000000027E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.9500000000000099E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.9000000000000034E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.8500000000000245E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.0799999999999976E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2749999999999984E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72F1-5942-88E8-5D092F31FDE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PIMCO!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27499999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PIMCO!$O$3:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-1.2599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.89E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.5199999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.1499999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.78E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.0399999999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.6699999999999987E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.2999999999999973E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.9299999999999987E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-72F1-5942-88E8-5D092F31FDE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1167737232"/>
+        <c:axId val="1167717168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1167737232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1167717168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1167717168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1167737232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>PIMCO Futures Fund: Sharpe 0.6x, Retorno anualizado 6.1%</a:t>
             </a:r>
           </a:p>
@@ -701,7 +1785,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AQMIX (2)'!$L$2</c:f>
+              <c:f>PIMCO!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -722,7 +1806,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AQMIX (2)'!$K$3:$K$12</c:f>
+              <c:f>PIMCO!$K$3:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -761,7 +1845,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AQMIX (2)'!$L$3:$L$12</c:f>
+              <c:f>PIMCO!$L$3:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -809,7 +1893,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AQMIX (2)'!$M$2</c:f>
+              <c:f>PIMCO!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -830,7 +1914,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AQMIX (2)'!$K$3:$K$12</c:f>
+              <c:f>PIMCO!$K$3:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -869,7 +1953,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AQMIX (2)'!$M$3:$M$12</c:f>
+              <c:f>PIMCO!$M$3:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1244,7 +2328,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1671,7 +2755,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2327,1090 +3411,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>AQMIX!$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Manager 2 - Manager 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>AQMIX!$K$3:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.5000000000000011E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.22499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.24999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.27499999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>AQMIX!$N$3:$N$12</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.5749999999999992E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.599999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6250000000000023E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6500000000000056E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.7500000000000199E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.9999999999999472E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.2749999999999984E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2.250000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-3.2250000000000056E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-4.2000000000000093E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-75DB-A341-A88B-9571DAB07085}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>AQMIX!$K$3:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.5000000000000011E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.22499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.24999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.27499999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>AQMIX!$O$3:$O$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.4000000000000028E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6000000000000025E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.8000000000000057E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0000000000000053E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.1999999999999981E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.3999999999999977E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.6000000000000044E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0800000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.2000000000000011E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3200000000000003E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-75DB-A341-A88B-9571DAB07085}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1167737232"/>
-        <c:axId val="1167717168"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1167737232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-AR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1167717168"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1167717168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-AR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1167737232"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-AR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>AQR Futures Fund: Sharpe 0.3x, Retorno anualizado 2.6%</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>vs.</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Fondo</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> con 0.5% de Management Fee, 13% de Performance</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-AR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18132434494639219"/>
-          <c:y val="0.17560247133287446"/>
-          <c:w val="0.80768664406459678"/>
-          <c:h val="0.60632288501250764"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>AQMIX!$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sólo Management Fee</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>AQMIX!$K$3:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.5000000000000011E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.22499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.24999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.27499999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>AQMIX!$L$3:$L$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2500000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.7499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.4999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.2499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.9999999999999991E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.7499999999999991E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.4999999999999983E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.249999999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F589-5843-A53E-A80813C2A48E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>AQMIX!$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Performance Fee</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>AQMIX!$K$3:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.5000000000000011E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.22499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.24999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.27499999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>AQMIX!$M$3:$M$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.9574999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6100000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2625000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9150000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5675E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.2200000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.8724999999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.5249999999999989E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.1774999999999978E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.8299999999999981E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F589-5843-A53E-A80813C2A48E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1848056064"/>
-        <c:axId val="1848070256"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1848056064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Volatilidad (%)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-AR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-AR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1848070256"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1848070256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Retorno Neto</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Anualizado (%)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-AR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-AR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1848056064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="2.5000000000000005E-2"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-AR"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1400">
-          <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-          <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-AR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6677,308 +6677,6 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA102A61-5503-994E-8FD8-970DFCCED7DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3A3B47-F266-EF4F-90B6-CE7D28C10E6F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Down Arrow 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C3412B-0257-8641-B0B5-E658882AFA44}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7531100" y="3467100"/>
-          <a:ext cx="787400" cy="1092200"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="7030A0"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>PIMCO</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3C2B0B-97E8-EC4C-B610-237F8071B2AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375A9DBF-2D85-5C49-A5CB-B7B57B3A0470}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Down Arrow 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B345BB16-8A1B-4142-BB42-9F064DB12306}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9017000" y="2527300"/>
-          <a:ext cx="787400" cy="1092200"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Chesapeake</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -7105,6 +6803,569 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="804323" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E83E81A-3524-BD07-1CAC-4763352125D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7188200" y="2755900"/>
+          <a:ext cx="804323" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>1.3%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Mgmt.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> Fee</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA102A61-5503-994E-8FD8-970DFCCED7DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3A3B47-F266-EF4F-90B6-CE7D28C10E6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Down Arrow 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C3412B-0257-8641-B0B5-E658882AFA44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7531100" y="3467100"/>
+          <a:ext cx="787400" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>PIMCO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="804323" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1212F8C-ACB4-834F-A07D-588710685274}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7518400" y="2857500"/>
+          <a:ext cx="804323" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>1.5%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Mgmt.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> Fee</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3C2B0B-97E8-EC4C-B610-237F8071B2AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375A9DBF-2D85-5C49-A5CB-B7B57B3A0470}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Down Arrow 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B345BB16-8A1B-4142-BB42-9F064DB12306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9017000" y="3175000"/>
+          <a:ext cx="787400" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Bookerly" panose="02020602040305020204" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Chesapeake</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="804323" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1F3FCE7-75A2-444E-B492-103DD2723EA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9004300" y="2603500"/>
+          <a:ext cx="804323" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>2%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Mgmt.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> Fee</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7404,11 +7665,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E885FB2-F4F5-124C-BAE0-8F574778C02C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4835053-7857-D046-93FA-3694651831AC}">
   <dimension ref="B1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7481,32 +7742,32 @@
         <v>0.05</v>
       </c>
       <c r="C3" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="D3">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="E3">
         <f>D3*B3</f>
-        <v>0.03</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F3" s="4">
         <f>E3+C3</f>
-        <v>4.4999999999999998E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="G3" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H3" s="4">
         <f>F3-G3</f>
-        <v>0.04</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="I3" s="1">
         <v>0.13</v>
       </c>
       <c r="J3" s="5">
         <f>H3*(1-I3)</f>
-        <v>3.4799999999999998E-2</v>
+        <v>1.9574999999999999E-2</v>
       </c>
       <c r="K3" s="1">
         <f>B3</f>
@@ -7514,19 +7775,19 @@
       </c>
       <c r="L3" s="7">
         <f>E3</f>
-        <v>0.03</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M3" s="7">
         <f>J3</f>
-        <v>3.4799999999999998E-2</v>
+        <v>1.9574999999999999E-2</v>
       </c>
       <c r="N3" s="1">
         <f>M3-L3</f>
-        <v>4.7999999999999987E-3</v>
+        <v>4.5749999999999992E-3</v>
       </c>
       <c r="O3" s="5">
         <f>Q3-L3</f>
-        <v>-1.2599999999999997E-2</v>
+        <v>2.4000000000000028E-3</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P12" si="0">B3*new_sharpe</f>
@@ -7544,19 +7805,19 @@
       </c>
       <c r="C4" s="2">
         <f>C3</f>
-        <v>1.4999999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="D4">
         <f>D3</f>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E12" si="1">D4*B4</f>
-        <v>4.5000000000000005E-2</v>
+        <v>2.2500000000000003E-2</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4:F12" si="2">E4+C4</f>
-        <v>6.0000000000000005E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G4" s="4">
         <f>G3</f>
@@ -7564,14 +7825,14 @@
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H12" si="3">F4-G4</f>
-        <v>5.5000000000000007E-2</v>
+        <v>3.0000000000000002E-2</v>
       </c>
       <c r="I4" s="1">
         <v>0.13</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ref="J4:J12" si="4">H4*(1-I4)</f>
-        <v>4.7850000000000004E-2</v>
+        <v>2.6100000000000002E-2</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4:K12" si="5">B4</f>
@@ -7579,19 +7840,19 @@
       </c>
       <c r="L4" s="7">
         <f t="shared" ref="L4:L12" si="6">E4</f>
-        <v>4.5000000000000005E-2</v>
+        <v>2.2500000000000003E-2</v>
       </c>
       <c r="M4" s="7">
         <f t="shared" ref="M4:M12" si="7">J4</f>
-        <v>4.7850000000000004E-2</v>
+        <v>2.6100000000000002E-2</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:N12" si="8">M4-L4</f>
-        <v>2.8499999999999984E-3</v>
+        <v>3.599999999999999E-3</v>
       </c>
       <c r="O4" s="5">
         <f t="shared" ref="O4:O12" si="9">Q4-L4</f>
-        <v>-1.89E-2</v>
+        <v>3.6000000000000025E-3</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
@@ -7608,35 +7869,35 @@
         <v>0.1</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:D12" si="12">C4</f>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" ref="C5:C12" si="12">C4</f>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="12"/>
-        <v>0.6</v>
+        <f t="shared" ref="D5:D12" si="13">D4</f>
+        <v>0.3</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="2"/>
-        <v>7.4999999999999997E-2</v>
+        <v>4.2499999999999996E-2</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G12" si="13">G4</f>
+        <f t="shared" ref="G5:G12" si="14">G4</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="3"/>
-        <v>6.9999999999999993E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="I5" s="1">
         <v>0.13</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" si="4"/>
-        <v>6.0899999999999996E-2</v>
+        <v>3.2625000000000001E-2</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="5"/>
@@ -7644,19 +7905,19 @@
       </c>
       <c r="L5" s="7">
         <f t="shared" si="6"/>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="M5" s="7">
         <f t="shared" si="7"/>
-        <v>6.0899999999999996E-2</v>
+        <v>3.2625000000000001E-2</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="8"/>
-        <v>8.9999999999999802E-4</v>
+        <v>2.6250000000000023E-3</v>
       </c>
       <c r="O5" s="5">
         <f t="shared" si="9"/>
-        <v>-2.5199999999999993E-2</v>
+        <v>4.8000000000000057E-3</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
@@ -7674,34 +7935,34 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="12"/>
-        <v>1.4999999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="12"/>
-        <v>0.6</v>
+        <f t="shared" si="13"/>
+        <v>0.3</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="2"/>
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="3"/>
-        <v>8.4999999999999992E-2</v>
+        <v>4.5000000000000005E-2</v>
       </c>
       <c r="I6" s="1">
         <v>0.13</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" si="4"/>
-        <v>7.3949999999999988E-2</v>
+        <v>3.9150000000000004E-2</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="5"/>
@@ -7709,19 +7970,19 @@
       </c>
       <c r="L6" s="7">
         <f t="shared" si="6"/>
-        <v>7.4999999999999997E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="M6" s="7">
         <f t="shared" si="7"/>
-        <v>7.3949999999999988E-2</v>
+        <v>3.9150000000000004E-2</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="8"/>
-        <v>-1.0500000000000093E-3</v>
+        <v>1.6500000000000056E-3</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" si="9"/>
-        <v>-3.1499999999999993E-2</v>
+        <v>6.0000000000000053E-3</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
@@ -7739,34 +8000,34 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="12"/>
-        <v>1.4999999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="12"/>
-        <v>0.6</v>
+        <f t="shared" si="13"/>
+        <v>0.3</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0.09</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="2"/>
-        <v>0.105</v>
+        <v>5.7499999999999996E-2</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="I7" s="1">
         <v>0.13</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" si="4"/>
-        <v>8.6999999999999994E-2</v>
+        <v>4.5675E-2</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="5"/>
@@ -7774,19 +8035,19 @@
       </c>
       <c r="L7" s="7">
         <f t="shared" si="6"/>
-        <v>0.09</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="M7" s="7">
         <f t="shared" si="7"/>
-        <v>8.6999999999999994E-2</v>
+        <v>4.5675E-2</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="8"/>
-        <v>-3.0000000000000027E-3</v>
+        <v>6.7500000000000199E-4</v>
       </c>
       <c r="O7" s="5">
         <f t="shared" si="9"/>
-        <v>-3.78E-2</v>
+        <v>7.1999999999999981E-3</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
@@ -7804,34 +8065,34 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="12"/>
-        <v>1.4999999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="12"/>
-        <v>0.6</v>
+        <f t="shared" si="13"/>
+        <v>0.3</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0.105</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="3"/>
-        <v>0.11499999999999999</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="I8" s="1">
         <v>0.13</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" si="4"/>
-        <v>0.10004999999999999</v>
+        <v>5.2200000000000003E-2</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="5"/>
@@ -7839,19 +8100,19 @@
       </c>
       <c r="L8" s="7">
         <f t="shared" si="6"/>
-        <v>0.105</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="M8" s="7">
         <f t="shared" si="7"/>
-        <v>0.10004999999999999</v>
+        <v>5.2200000000000003E-2</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="8"/>
-        <v>-4.9500000000000099E-3</v>
+        <v>-2.9999999999999472E-4</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" si="9"/>
-        <v>-4.41E-2</v>
+        <v>8.3999999999999977E-3</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
@@ -7869,34 +8130,34 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="12"/>
-        <v>1.4999999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="12"/>
-        <v>0.6</v>
+        <f t="shared" si="13"/>
+        <v>0.3</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0.11999999999999998</v>
+        <v>5.9999999999999991E-2</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="2"/>
-        <v>0.13499999999999998</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="3"/>
-        <v>0.12999999999999998</v>
+        <v>6.7499999999999991E-2</v>
       </c>
       <c r="I9" s="1">
         <v>0.13</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="4"/>
-        <v>0.11309999999999998</v>
+        <v>5.8724999999999992E-2</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="5"/>
@@ -7904,19 +8165,19 @@
       </c>
       <c r="L9" s="7">
         <f t="shared" si="6"/>
-        <v>0.11999999999999998</v>
+        <v>5.9999999999999991E-2</v>
       </c>
       <c r="M9" s="7">
         <f t="shared" si="7"/>
-        <v>0.11309999999999998</v>
+        <v>5.8724999999999992E-2</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="8"/>
-        <v>-6.9000000000000034E-3</v>
+        <v>-1.2749999999999984E-3</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" si="9"/>
-        <v>-5.0399999999999986E-2</v>
+        <v>9.6000000000000044E-3</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
@@ -7934,34 +8195,34 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="12"/>
-        <v>1.4999999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="12"/>
-        <v>0.6</v>
+        <f t="shared" si="13"/>
+        <v>0.3</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>0.13499999999999998</v>
+        <v>6.7499999999999991E-2</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="2"/>
-        <v>0.14999999999999997</v>
+        <v>7.9999999999999988E-2</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="3"/>
-        <v>0.14499999999999996</v>
+        <v>7.4999999999999983E-2</v>
       </c>
       <c r="I10" s="1">
         <v>0.13</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="4"/>
-        <v>0.12614999999999996</v>
+        <v>6.5249999999999989E-2</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="5"/>
@@ -7969,19 +8230,19 @@
       </c>
       <c r="L10" s="7">
         <f t="shared" si="6"/>
-        <v>0.13499999999999998</v>
+        <v>6.7499999999999991E-2</v>
       </c>
       <c r="M10" s="7">
         <f t="shared" si="7"/>
-        <v>0.12614999999999996</v>
+        <v>6.5249999999999989E-2</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="8"/>
-        <v>-8.8500000000000245E-3</v>
+        <v>-2.250000000000002E-3</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" si="9"/>
-        <v>-5.6699999999999987E-2</v>
+        <v>1.0800000000000004E-2</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
@@ -7999,34 +8260,34 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="12"/>
-        <v>1.4999999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="12"/>
-        <v>0.6</v>
+        <f t="shared" si="13"/>
+        <v>0.3</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>0.14999999999999997</v>
+        <v>7.4999999999999983E-2</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="2"/>
-        <v>0.16499999999999998</v>
+        <v>8.7499999999999981E-2</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="3"/>
-        <v>0.15999999999999998</v>
+        <v>8.2499999999999976E-2</v>
       </c>
       <c r="I11" s="1">
         <v>0.13</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="4"/>
-        <v>0.13919999999999999</v>
+        <v>7.1774999999999978E-2</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="5"/>
@@ -8034,19 +8295,19 @@
       </c>
       <c r="L11" s="7">
         <f t="shared" si="6"/>
-        <v>0.14999999999999997</v>
+        <v>7.4999999999999983E-2</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" si="7"/>
-        <v>0.13919999999999999</v>
+        <v>7.1774999999999978E-2</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="8"/>
-        <v>-1.0799999999999976E-2</v>
+        <v>-3.2250000000000056E-3</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" si="9"/>
-        <v>-6.2999999999999973E-2</v>
+        <v>1.2000000000000011E-2</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
@@ -8064,34 +8325,34 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="12"/>
-        <v>1.4999999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="12"/>
-        <v>0.6</v>
+        <f t="shared" si="13"/>
+        <v>0.3</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>0.16499999999999998</v>
+        <v>8.249999999999999E-2</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
-        <v>0.18</v>
+        <v>9.4999999999999987E-2</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="3"/>
-        <v>0.17499999999999999</v>
+        <v>8.9999999999999983E-2</v>
       </c>
       <c r="I12" s="1">
         <v>0.13</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" si="4"/>
-        <v>0.15225</v>
+        <v>7.8299999999999981E-2</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="5"/>
@@ -8099,19 +8360,19 @@
       </c>
       <c r="L12" s="7">
         <f t="shared" si="6"/>
-        <v>0.16499999999999998</v>
+        <v>8.249999999999999E-2</v>
       </c>
       <c r="M12" s="7">
         <f t="shared" si="7"/>
-        <v>0.15225</v>
+        <v>7.8299999999999981E-2</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="8"/>
-        <v>-1.2749999999999984E-2</v>
+        <v>-4.2000000000000093E-3</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" si="9"/>
-        <v>-6.9299999999999987E-2</v>
+        <v>1.3200000000000003E-2</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
@@ -8134,11 +8395,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A36CB7-AE2F-424C-B896-E103D3F4D896}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E885FB2-F4F5-124C-BAE0-8F574778C02C}">
   <dimension ref="B1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8211,14 +8472,14 @@
         <v>0.05</v>
       </c>
       <c r="C3" s="2">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E3">
         <f>D3*B3</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F3" s="4">
         <f>E3+C3</f>
@@ -8244,7 +8505,7 @@
       </c>
       <c r="L3" s="7">
         <f>E3</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="M3" s="7">
         <f>J3</f>
@@ -8252,11 +8513,11 @@
       </c>
       <c r="N3" s="1">
         <f>M3-L3</f>
-        <v>9.7999999999999962E-3</v>
+        <v>4.7999999999999987E-3</v>
       </c>
       <c r="O3" s="5">
         <f>Q3-L3</f>
-        <v>-7.5999999999999991E-3</v>
+        <v>-1.2599999999999997E-2</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P12" si="0">B3*new_sharpe</f>
@@ -8274,19 +8535,19 @@
       </c>
       <c r="C4" s="2">
         <f>C3</f>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D4">
         <f>D3</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E12" si="1">D4*B4</f>
-        <v>3.7500000000000006E-2</v>
+        <v>4.5000000000000005E-2</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4:F12" si="2">E4+C4</f>
-        <v>5.7500000000000009E-2</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="G4" s="4">
         <f>G3</f>
@@ -8294,14 +8555,14 @@
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H12" si="3">F4-G4</f>
-        <v>5.2500000000000012E-2</v>
+        <v>5.5000000000000007E-2</v>
       </c>
       <c r="I4" s="1">
         <v>0.13</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ref="J4:J12" si="4">H4*(1-I4)</f>
-        <v>4.5675000000000007E-2</v>
+        <v>4.7850000000000004E-2</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4:K12" si="5">B4</f>
@@ -8309,19 +8570,19 @@
       </c>
       <c r="L4" s="7">
         <f t="shared" ref="L4:L12" si="6">E4</f>
-        <v>3.7500000000000006E-2</v>
+        <v>4.5000000000000005E-2</v>
       </c>
       <c r="M4" s="7">
         <f t="shared" ref="M4:M12" si="7">J4</f>
-        <v>4.5675000000000007E-2</v>
+        <v>4.7850000000000004E-2</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:N12" si="8">M4-L4</f>
-        <v>8.1750000000000017E-3</v>
+        <v>2.8499999999999984E-3</v>
       </c>
       <c r="O4" s="5">
         <f t="shared" ref="O4:O12" si="9">Q4-L4</f>
-        <v>-1.14E-2</v>
+        <v>-1.89E-2</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
@@ -8339,19 +8600,19 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:D12" si="12">C4</f>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D5">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" ref="G5:G12" si="13">G4</f>
@@ -8359,14 +8620,14 @@
       </c>
       <c r="H5" s="4">
         <f t="shared" si="3"/>
-        <v>6.5000000000000002E-2</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="I5" s="1">
         <v>0.13</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" si="4"/>
-        <v>5.6550000000000003E-2</v>
+        <v>6.0899999999999996E-2</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="5"/>
@@ -8374,19 +8635,19 @@
       </c>
       <c r="L5" s="7">
         <f t="shared" si="6"/>
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="M5" s="7">
         <f t="shared" si="7"/>
-        <v>5.6550000000000003E-2</v>
+        <v>6.0899999999999996E-2</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="8"/>
-        <v>6.5500000000000003E-3</v>
+        <v>8.9999999999999802E-4</v>
       </c>
       <c r="O5" s="5">
         <f t="shared" si="9"/>
-        <v>-1.5199999999999998E-2</v>
+        <v>-2.5199999999999993E-2</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
@@ -8404,19 +8665,19 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="12"/>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D6">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>6.25E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="2"/>
-        <v>8.2500000000000004E-2</v>
+        <v>0.09</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="13"/>
@@ -8424,14 +8685,14 @@
       </c>
       <c r="H6" s="4">
         <f t="shared" si="3"/>
-        <v>7.7499999999999999E-2</v>
+        <v>8.4999999999999992E-2</v>
       </c>
       <c r="I6" s="1">
         <v>0.13</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" si="4"/>
-        <v>6.7424999999999999E-2</v>
+        <v>7.3949999999999988E-2</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="5"/>
@@ -8439,19 +8700,19 @@
       </c>
       <c r="L6" s="7">
         <f t="shared" si="6"/>
-        <v>6.25E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="M6" s="7">
         <f t="shared" si="7"/>
-        <v>6.7424999999999999E-2</v>
+        <v>7.3949999999999988E-2</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="8"/>
-        <v>4.9249999999999988E-3</v>
+        <v>-1.0500000000000093E-3</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" si="9"/>
-        <v>-1.8999999999999996E-2</v>
+        <v>-3.1499999999999993E-2</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
@@ -8469,19 +8730,19 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="12"/>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D7">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.09</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="2"/>
-        <v>9.5000000000000001E-2</v>
+        <v>0.105</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="13"/>
@@ -8489,14 +8750,14 @@
       </c>
       <c r="H7" s="4">
         <f t="shared" si="3"/>
-        <v>0.09</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="I7" s="1">
         <v>0.13</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" si="4"/>
-        <v>7.8299999999999995E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="5"/>
@@ -8504,19 +8765,19 @@
       </c>
       <c r="L7" s="7">
         <f t="shared" si="6"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.09</v>
       </c>
       <c r="M7" s="7">
         <f t="shared" si="7"/>
-        <v>7.8299999999999995E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="8"/>
-        <v>3.2999999999999974E-3</v>
+        <v>-3.0000000000000027E-3</v>
       </c>
       <c r="O7" s="5">
         <f t="shared" si="9"/>
-        <v>-2.2800000000000001E-2</v>
+        <v>-3.78E-2</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
@@ -8534,19 +8795,19 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="12"/>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D8">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>8.7499999999999994E-2</v>
+        <v>0.105</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="2"/>
-        <v>0.1075</v>
+        <v>0.12</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="13"/>
@@ -8554,14 +8815,14 @@
       </c>
       <c r="H8" s="4">
         <f t="shared" si="3"/>
-        <v>0.10249999999999999</v>
+        <v>0.11499999999999999</v>
       </c>
       <c r="I8" s="1">
         <v>0.13</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" si="4"/>
-        <v>8.917499999999999E-2</v>
+        <v>0.10004999999999999</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="5"/>
@@ -8569,19 +8830,19 @@
       </c>
       <c r="L8" s="7">
         <f t="shared" si="6"/>
-        <v>8.7499999999999994E-2</v>
+        <v>0.105</v>
       </c>
       <c r="M8" s="7">
         <f t="shared" si="7"/>
-        <v>8.917499999999999E-2</v>
+        <v>0.10004999999999999</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="8"/>
-        <v>1.6749999999999959E-3</v>
+        <v>-4.9500000000000099E-3</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" si="9"/>
-        <v>-2.6599999999999999E-2</v>
+        <v>-4.41E-2</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
@@ -8599,19 +8860,19 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="12"/>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D9">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>9.9999999999999992E-2</v>
+        <v>0.11999999999999998</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="13"/>
@@ -8619,14 +8880,14 @@
       </c>
       <c r="H9" s="4">
         <f t="shared" si="3"/>
-        <v>0.11499999999999999</v>
+        <v>0.12999999999999998</v>
       </c>
       <c r="I9" s="1">
         <v>0.13</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="4"/>
-        <v>0.10004999999999999</v>
+        <v>0.11309999999999998</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="5"/>
@@ -8634,19 +8895,19 @@
       </c>
       <c r="L9" s="7">
         <f t="shared" si="6"/>
-        <v>9.9999999999999992E-2</v>
+        <v>0.11999999999999998</v>
       </c>
       <c r="M9" s="7">
         <f t="shared" si="7"/>
-        <v>0.10004999999999999</v>
+        <v>0.11309999999999998</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="8"/>
-        <v>4.9999999999994493E-5</v>
+        <v>-6.9000000000000034E-3</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" si="9"/>
-        <v>-3.0399999999999996E-2</v>
+        <v>-5.0399999999999986E-2</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
@@ -8664,19 +8925,19 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="12"/>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D10">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>0.11249999999999999</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="2"/>
-        <v>0.13249999999999998</v>
+        <v>0.14999999999999997</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="13"/>
@@ -8684,14 +8945,14 @@
       </c>
       <c r="H10" s="4">
         <f t="shared" si="3"/>
-        <v>0.12749999999999997</v>
+        <v>0.14499999999999996</v>
       </c>
       <c r="I10" s="1">
         <v>0.13</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="4"/>
-        <v>0.11092499999999998</v>
+        <v>0.12614999999999996</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="5"/>
@@ -8699,19 +8960,19 @@
       </c>
       <c r="L10" s="7">
         <f t="shared" si="6"/>
-        <v>0.11249999999999999</v>
+        <v>0.13499999999999998</v>
       </c>
       <c r="M10" s="7">
         <f t="shared" si="7"/>
-        <v>0.11092499999999998</v>
+        <v>0.12614999999999996</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="8"/>
-        <v>-1.5750000000000069E-3</v>
+        <v>-8.8500000000000245E-3</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" si="9"/>
-        <v>-3.4199999999999994E-2</v>
+        <v>-5.6699999999999987E-2</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
@@ -8729,19 +8990,19 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="12"/>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D11">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>0.12499999999999999</v>
+        <v>0.14999999999999997</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="2"/>
-        <v>0.14499999999999999</v>
+        <v>0.16499999999999998</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="13"/>
@@ -8749,14 +9010,14 @@
       </c>
       <c r="H11" s="4">
         <f t="shared" si="3"/>
-        <v>0.13999999999999999</v>
+        <v>0.15999999999999998</v>
       </c>
       <c r="I11" s="1">
         <v>0.13</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="4"/>
-        <v>0.12179999999999999</v>
+        <v>0.13919999999999999</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="5"/>
@@ -8764,19 +9025,19 @@
       </c>
       <c r="L11" s="7">
         <f t="shared" si="6"/>
-        <v>0.12499999999999999</v>
+        <v>0.14999999999999997</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" si="7"/>
-        <v>0.12179999999999999</v>
+        <v>0.13919999999999999</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="8"/>
-        <v>-3.1999999999999945E-3</v>
+        <v>-1.0799999999999976E-2</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" si="9"/>
-        <v>-3.7999999999999992E-2</v>
+        <v>-6.2999999999999973E-2</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
@@ -8794,19 +9055,19 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="12"/>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D12">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>0.13749999999999998</v>
+        <v>0.16499999999999998</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
-        <v>0.15749999999999997</v>
+        <v>0.18</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="13"/>
@@ -8814,14 +9075,14 @@
       </c>
       <c r="H12" s="4">
         <f t="shared" si="3"/>
-        <v>0.15249999999999997</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="I12" s="1">
         <v>0.13</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" si="4"/>
-        <v>0.13267499999999996</v>
+        <v>0.15225</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="5"/>
@@ -8829,19 +9090,19 @@
       </c>
       <c r="L12" s="7">
         <f t="shared" si="6"/>
-        <v>0.13749999999999998</v>
+        <v>0.16499999999999998</v>
       </c>
       <c r="M12" s="7">
         <f t="shared" si="7"/>
-        <v>0.13267499999999996</v>
+        <v>0.15225</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="8"/>
-        <v>-4.8250000000000237E-3</v>
+        <v>-1.2749999999999984E-2</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" si="9"/>
-        <v>-4.179999999999999E-2</v>
+        <v>-6.9299999999999987E-2</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
@@ -8864,11 +9125,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4835053-7857-D046-93FA-3694651831AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A36CB7-AE2F-424C-B896-E103D3F4D896}">
   <dimension ref="B1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8941,32 +9202,32 @@
         <v>0.05</v>
       </c>
       <c r="C3" s="2">
-        <v>1.2500000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D3">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
         <f>D3*B3</f>
-        <v>1.4999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F3" s="4">
         <f>E3+C3</f>
-        <v>2.75E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G3" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H3" s="4">
         <f>F3-G3</f>
-        <v>2.2499999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I3" s="1">
         <v>0.13</v>
       </c>
       <c r="J3" s="5">
         <f>H3*(1-I3)</f>
-        <v>1.9574999999999999E-2</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="K3" s="1">
         <f>B3</f>
@@ -8974,19 +9235,19 @@
       </c>
       <c r="L3" s="7">
         <f>E3</f>
-        <v>1.4999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="M3" s="7">
         <f>J3</f>
-        <v>1.9574999999999999E-2</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="N3" s="1">
         <f>M3-L3</f>
-        <v>4.5749999999999992E-3</v>
+        <v>9.7999999999999962E-3</v>
       </c>
       <c r="O3" s="5">
         <f>Q3-L3</f>
-        <v>2.4000000000000028E-3</v>
+        <v>-7.5999999999999991E-3</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P12" si="0">B3*new_sharpe</f>
@@ -9004,19 +9265,19 @@
       </c>
       <c r="C4" s="2">
         <f>C3</f>
-        <v>1.2500000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D4">
         <f>D3</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E12" si="1">D4*B4</f>
-        <v>2.2500000000000003E-2</v>
+        <v>3.7500000000000006E-2</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4:F12" si="2">E4+C4</f>
-        <v>3.5000000000000003E-2</v>
+        <v>5.7500000000000009E-2</v>
       </c>
       <c r="G4" s="4">
         <f>G3</f>
@@ -9024,14 +9285,14 @@
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H12" si="3">F4-G4</f>
-        <v>3.0000000000000002E-2</v>
+        <v>5.2500000000000012E-2</v>
       </c>
       <c r="I4" s="1">
         <v>0.13</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ref="J4:J12" si="4">H4*(1-I4)</f>
-        <v>2.6100000000000002E-2</v>
+        <v>4.5675000000000007E-2</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4:K12" si="5">B4</f>
@@ -9039,19 +9300,19 @@
       </c>
       <c r="L4" s="7">
         <f t="shared" ref="L4:L12" si="6">E4</f>
-        <v>2.2500000000000003E-2</v>
+        <v>3.7500000000000006E-2</v>
       </c>
       <c r="M4" s="7">
         <f t="shared" ref="M4:M12" si="7">J4</f>
-        <v>2.6100000000000002E-2</v>
+        <v>4.5675000000000007E-2</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:N12" si="8">M4-L4</f>
-        <v>3.599999999999999E-3</v>
+        <v>8.1750000000000017E-3</v>
       </c>
       <c r="O4" s="5">
         <f t="shared" ref="O4:O12" si="9">Q4-L4</f>
-        <v>3.6000000000000025E-3</v>
+        <v>-1.14E-2</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
@@ -9068,35 +9329,35 @@
         <v>0.1</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C12" si="12">C4</f>
-        <v>1.2500000000000001E-2</v>
+        <f t="shared" ref="C5:D12" si="12">C4</f>
+        <v>0.02</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D12" si="13">D4</f>
-        <v>0.3</v>
+        <f t="shared" si="12"/>
+        <v>0.5</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="2"/>
-        <v>4.2499999999999996E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G12" si="14">G4</f>
+        <f t="shared" ref="G5:G12" si="13">G4</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="3"/>
-        <v>3.7499999999999999E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="I5" s="1">
         <v>0.13</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" si="4"/>
-        <v>3.2625000000000001E-2</v>
+        <v>5.6550000000000003E-2</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="5"/>
@@ -9104,19 +9365,19 @@
       </c>
       <c r="L5" s="7">
         <f t="shared" si="6"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="M5" s="7">
         <f t="shared" si="7"/>
-        <v>3.2625000000000001E-2</v>
+        <v>5.6550000000000003E-2</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="8"/>
-        <v>2.6250000000000023E-3</v>
+        <v>6.5500000000000003E-3</v>
       </c>
       <c r="O5" s="5">
         <f t="shared" si="9"/>
-        <v>4.8000000000000057E-3</v>
+        <v>-1.5199999999999998E-2</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
@@ -9134,34 +9395,34 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="12"/>
-        <v>1.2500000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D6">
-        <f t="shared" si="13"/>
-        <v>0.3</v>
+        <f t="shared" si="12"/>
+        <v>0.5</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>3.7499999999999999E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="3"/>
-        <v>4.5000000000000005E-2</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="I6" s="1">
         <v>0.13</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" si="4"/>
-        <v>3.9150000000000004E-2</v>
+        <v>6.7424999999999999E-2</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="5"/>
@@ -9169,19 +9430,19 @@
       </c>
       <c r="L6" s="7">
         <f t="shared" si="6"/>
-        <v>3.7499999999999999E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M6" s="7">
         <f t="shared" si="7"/>
-        <v>3.9150000000000004E-2</v>
+        <v>6.7424999999999999E-2</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="8"/>
-        <v>1.6500000000000056E-3</v>
+        <v>4.9249999999999988E-3</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" si="9"/>
-        <v>6.0000000000000053E-3</v>
+        <v>-1.8999999999999996E-2</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
@@ -9199,34 +9460,34 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="12"/>
-        <v>1.2500000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D7">
-        <f t="shared" si="13"/>
-        <v>0.3</v>
+        <f t="shared" si="12"/>
+        <v>0.5</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>4.4999999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="2"/>
-        <v>5.7499999999999996E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="3"/>
-        <v>5.2499999999999998E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I7" s="1">
         <v>0.13</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" si="4"/>
-        <v>4.5675E-2</v>
+        <v>7.8299999999999995E-2</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="5"/>
@@ -9234,19 +9495,19 @@
       </c>
       <c r="L7" s="7">
         <f t="shared" si="6"/>
-        <v>4.4999999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="M7" s="7">
         <f t="shared" si="7"/>
-        <v>4.5675E-2</v>
+        <v>7.8299999999999995E-2</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="8"/>
-        <v>6.7500000000000199E-4</v>
+        <v>3.2999999999999974E-3</v>
       </c>
       <c r="O7" s="5">
         <f t="shared" si="9"/>
-        <v>7.1999999999999981E-3</v>
+        <v>-2.2800000000000001E-2</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
@@ -9264,34 +9525,34 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="12"/>
-        <v>1.2500000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D8">
-        <f t="shared" si="13"/>
-        <v>0.3</v>
+        <f t="shared" si="12"/>
+        <v>0.5</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>5.2499999999999998E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0.1075</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="3"/>
-        <v>6.0000000000000005E-2</v>
+        <v>0.10249999999999999</v>
       </c>
       <c r="I8" s="1">
         <v>0.13</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" si="4"/>
-        <v>5.2200000000000003E-2</v>
+        <v>8.917499999999999E-2</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="5"/>
@@ -9299,19 +9560,19 @@
       </c>
       <c r="L8" s="7">
         <f t="shared" si="6"/>
-        <v>5.2499999999999998E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="M8" s="7">
         <f t="shared" si="7"/>
-        <v>5.2200000000000003E-2</v>
+        <v>8.917499999999999E-2</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="8"/>
-        <v>-2.9999999999999472E-4</v>
+        <v>1.6749999999999959E-3</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" si="9"/>
-        <v>8.3999999999999977E-3</v>
+        <v>-2.6599999999999999E-2</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
@@ -9329,34 +9590,34 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="12"/>
-        <v>1.2500000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D9">
-        <f t="shared" si="13"/>
-        <v>0.3</v>
+        <f t="shared" si="12"/>
+        <v>0.5</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>5.9999999999999991E-2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="2"/>
-        <v>7.2499999999999995E-2</v>
+        <v>0.12</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="3"/>
-        <v>6.7499999999999991E-2</v>
+        <v>0.11499999999999999</v>
       </c>
       <c r="I9" s="1">
         <v>0.13</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="4"/>
-        <v>5.8724999999999992E-2</v>
+        <v>0.10004999999999999</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="5"/>
@@ -9364,19 +9625,19 @@
       </c>
       <c r="L9" s="7">
         <f t="shared" si="6"/>
-        <v>5.9999999999999991E-2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="M9" s="7">
         <f t="shared" si="7"/>
-        <v>5.8724999999999992E-2</v>
+        <v>0.10004999999999999</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="8"/>
-        <v>-1.2749999999999984E-3</v>
+        <v>4.9999999999994493E-5</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" si="9"/>
-        <v>9.6000000000000044E-3</v>
+        <v>-3.0399999999999996E-2</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
@@ -9394,34 +9655,34 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="12"/>
-        <v>1.2500000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D10">
-        <f t="shared" si="13"/>
-        <v>0.3</v>
+        <f t="shared" si="12"/>
+        <v>0.5</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>6.7499999999999991E-2</v>
+        <v>0.11249999999999999</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="2"/>
-        <v>7.9999999999999988E-2</v>
+        <v>0.13249999999999998</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="3"/>
-        <v>7.4999999999999983E-2</v>
+        <v>0.12749999999999997</v>
       </c>
       <c r="I10" s="1">
         <v>0.13</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="4"/>
-        <v>6.5249999999999989E-2</v>
+        <v>0.11092499999999998</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="5"/>
@@ -9429,19 +9690,19 @@
       </c>
       <c r="L10" s="7">
         <f t="shared" si="6"/>
-        <v>6.7499999999999991E-2</v>
+        <v>0.11249999999999999</v>
       </c>
       <c r="M10" s="7">
         <f t="shared" si="7"/>
-        <v>6.5249999999999989E-2</v>
+        <v>0.11092499999999998</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="8"/>
-        <v>-2.250000000000002E-3</v>
+        <v>-1.5750000000000069E-3</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" si="9"/>
-        <v>1.0800000000000004E-2</v>
+        <v>-3.4199999999999994E-2</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
@@ -9459,34 +9720,34 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="12"/>
-        <v>1.2500000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D11">
-        <f t="shared" si="13"/>
-        <v>0.3</v>
+        <f t="shared" si="12"/>
+        <v>0.5</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>7.4999999999999983E-2</v>
+        <v>0.12499999999999999</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="2"/>
-        <v>8.7499999999999981E-2</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="3"/>
-        <v>8.2499999999999976E-2</v>
+        <v>0.13999999999999999</v>
       </c>
       <c r="I11" s="1">
         <v>0.13</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="4"/>
-        <v>7.1774999999999978E-2</v>
+        <v>0.12179999999999999</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="5"/>
@@ -9494,19 +9755,19 @@
       </c>
       <c r="L11" s="7">
         <f t="shared" si="6"/>
-        <v>7.4999999999999983E-2</v>
+        <v>0.12499999999999999</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" si="7"/>
-        <v>7.1774999999999978E-2</v>
+        <v>0.12179999999999999</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="8"/>
-        <v>-3.2250000000000056E-3</v>
+        <v>-3.1999999999999945E-3</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" si="9"/>
-        <v>1.2000000000000011E-2</v>
+        <v>-3.7999999999999992E-2</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
@@ -9524,34 +9785,34 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="12"/>
-        <v>1.2500000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D12">
-        <f t="shared" si="13"/>
-        <v>0.3</v>
+        <f t="shared" si="12"/>
+        <v>0.5</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>8.249999999999999E-2</v>
+        <v>0.13749999999999998</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
-        <v>9.4999999999999987E-2</v>
+        <v>0.15749999999999997</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="3"/>
-        <v>8.9999999999999983E-2</v>
+        <v>0.15249999999999997</v>
       </c>
       <c r="I12" s="1">
         <v>0.13</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" si="4"/>
-        <v>7.8299999999999981E-2</v>
+        <v>0.13267499999999996</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="5"/>
@@ -9559,19 +9820,19 @@
       </c>
       <c r="L12" s="7">
         <f t="shared" si="6"/>
-        <v>8.249999999999999E-2</v>
+        <v>0.13749999999999998</v>
       </c>
       <c r="M12" s="7">
         <f t="shared" si="7"/>
-        <v>7.8299999999999981E-2</v>
+        <v>0.13267499999999996</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="8"/>
-        <v>-4.2000000000000093E-3</v>
+        <v>-4.8250000000000237E-3</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" si="9"/>
-        <v>1.3200000000000003E-2</v>
+        <v>-4.179999999999999E-2</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>

--- a/presentations/Comparativo de fees fijos y variables.xlsx
+++ b/presentations/Comparativo de fees fijos y variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresp/Documents/R Projects/Trading bloque/presentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C2E1EB-6294-5249-998B-E971DCA67FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C44E96C-2E5C-7947-84C4-3A29AFA16BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{FF18EC40-325D-4549-B661-1A48975C421C}"/>
   </bookViews>
